--- a/multi.xlsx
+++ b/multi.xlsx
@@ -9,17 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21945" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21945" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="multi" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
   <si>
     <t>OneToOne</t>
   </si>
@@ -33,16 +46,19 @@
     <t>LockFreeRoundRobin</t>
   </si>
   <si>
-    <t>Queue</t>
+    <t>LockedQueue</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>WorkStealingLocked</t>
   </si>
   <si>
-    <t>Full</t>
+    <t>SingleQueue</t>
   </si>
   <si>
-    <t>Empty</t>
+    <t>SimpleLinear</t>
+  </si>
+  <si>
+    <t>SimpleTree</t>
   </si>
 </sst>
 </file>
@@ -607,7 +623,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -620,14 +636,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Multiple Consumer Producer - Time</a:t>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Multiple</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> taken</a:t>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> Consumers - Multiple Consumers</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -645,7 +661,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -710,7 +726,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1023</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,7 +774,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>925</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -806,7 +822,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1743</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -854,7 +870,253 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>967</c:v>
+                  <c:v>157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multi!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LockedQueue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multi!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multi!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multi!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WorkStealingLocked</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multi!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multi!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multi!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SingleQueue</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multi!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multi!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multi!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SimpleLinear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multi!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multi!$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>multi!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SimpleTree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>multi!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>multi!$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -870,11 +1132,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="220073200"/>
-        <c:axId val="220072640"/>
+        <c:axId val="222540592"/>
+        <c:axId val="222541152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="220073200"/>
+        <c:axId val="222540592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,7 +1179,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220072640"/>
+        <c:crossAx val="222541152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -925,7 +1187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220072640"/>
+        <c:axId val="222541152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +1228,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time in ms</a:t>
+                  <a:t>Time ms</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1032,7 +1294,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220073200"/>
+        <c:crossAx val="222540592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1060,7 +1322,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1107,479 +1369,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Multiple Consumer</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> and Producer - Times Empty</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>multi!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OneToOne</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>multi!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Empty</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>multi!$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>702746</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>multi!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>WorkStealing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>multi!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Empty</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>multi!$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>707311</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>multi!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LockFree</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>multi!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Empty</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>multi!$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>154447</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>multi!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LockFreeRoundRobin</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>multi!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Empty</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>multi!$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>263459</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="376973392"/>
-        <c:axId val="376972832"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="376973392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="376972832"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="376972832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="376973392"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.75" l="0.25" r="0.25" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1624,46 +1415,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2167,528 +1918,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>146684</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2697,36 +1947,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2998,86 +2218,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>1023</v>
+        <v>128</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>702746</v>
+        <v>27793627</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>925</v>
+        <v>112</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>19202</v>
       </c>
       <c r="D3">
-        <v>707311</v>
+        <v>1106218</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>1743</v>
+        <v>259</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>99724</v>
       </c>
       <c r="D4">
-        <v>154447</v>
+        <v>804472</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>967</v>
+        <v>157</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>263459</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>398</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>785961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>769</v>
+      </c>
+      <c r="C7">
+        <v>3097722</v>
+      </c>
+      <c r="D7">
+        <v>892976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>113</v>
+      </c>
+      <c r="C8">
+        <v>23365</v>
+      </c>
+      <c r="D8">
+        <v>1826732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1955</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>209</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>90001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>